--- a/biology/Médecine/Mohamed_Ghannem/Mohamed_Ghannem.xlsx
+++ b/biology/Médecine/Mohamed_Ghannem/Mohamed_Ghannem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mohamed Ghannem, né le 27 mai 1955 à Kairouan, est un homme politique franco-tunisien.
@@ -513,12 +525,14 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu le baccalauréat en 1975 au lycée El Mansoura à Kairouan, il est diplômé des centres hospitaliers et universitaires Lariboisière - Saint-Louis à Paris en 1983 puis obtient un doctorat en cardiologie en 1989[1].
-Il est responsable de l'unité de cardiologie interventionnelle à l'hôpital de Gonesse et chef de service au Centre de prévention et de réadaptation cardio-vasculaire à Tracy-le-Mont[1],[2].
-Il est également professeur, chercheur et conférencier dans les universités de Tunis, Sousse et Amiens[1],[3].
-Mohamed Ghannem a fondé l'Association franco-tunisienne de cardiologie et préside notamment l'Association francophone internationale de réadaptation et de prévention cardiaque et l'Association des médecins maghrébins en France. Il a également co-fondé le Club XXIe siècle[1]. Il est par ailleurs directeur de la revue médicale El Hakim qui paraît en France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu le baccalauréat en 1975 au lycée El Mansoura à Kairouan, il est diplômé des centres hospitaliers et universitaires Lariboisière - Saint-Louis à Paris en 1983 puis obtient un doctorat en cardiologie en 1989.
+Il est responsable de l'unité de cardiologie interventionnelle à l'hôpital de Gonesse et chef de service au Centre de prévention et de réadaptation cardio-vasculaire à Tracy-le-Mont,.
+Il est également professeur, chercheur et conférencier dans les universités de Tunis, Sousse et Amiens,.
+Mohamed Ghannem a fondé l'Association franco-tunisienne de cardiologie et préside notamment l'Association francophone internationale de réadaptation et de prévention cardiaque et l'Association des médecins maghrébins en France. Il a également co-fondé le Club XXIe siècle. Il est par ailleurs directeur de la revue médicale El Hakim qui paraît en France.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors des élections municipales de 2008 à Paris, il est élu au sein d'une liste de l'Union pour un mouvement populaire comme conseiller d'arrondissement dans le 18e arrondissement de Paris[5], fonction qu'il occupe jusqu'aux élections municipales de 2014[3].
-À l'occasion des élections législatives tunisiennes de 2014, il est élu député comme représentant du parti Afek Tounes dans la première circonscription de la France. À l'Assemblée des représentants du peuple, il siège à la commission de la santé et des affaires sociales et à la commission des affaires des Tunisiens à l'étranger[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors des élections municipales de 2008 à Paris, il est élu au sein d'une liste de l'Union pour un mouvement populaire comme conseiller d'arrondissement dans le 18e arrondissement de Paris, fonction qu'il occupe jusqu'aux élections municipales de 2014.
+À l'occasion des élections législatives tunisiennes de 2014, il est élu député comme représentant du parti Afek Tounes dans la première circonscription de la France. À l'Assemblée des représentants du peuple, il siège à la commission de la santé et des affaires sociales et à la commission des affaires des Tunisiens à l'étranger.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en mai 2005 par le Premier ministre français Jean-Pierre Raffarin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en mai 2005 par le Premier ministre français Jean-Pierre Raffarin.
 </t>
         </is>
       </c>
